--- a/0_Datasets/Data2021/Region/clean_data/regngrad_2021_clean.xlsx
+++ b/0_Datasets/Data2021/Region/clean_data/regngrad_2021_clean.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJE21"/>
+  <dimension ref="A1:AJG21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5137,6 +5137,16 @@
       <c r="AJE1" s="1" t="inlineStr">
         <is>
           <t>Region 2019 Graduates: RHSP/DAP or FHSP-E/FHSP-DLA At Risk %</t>
+        </is>
+      </c>
+      <c r="AJF1" s="1" t="inlineStr">
+        <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="AJG1" s="1" t="inlineStr">
+        <is>
+          <t>REGNNAME</t>
         </is>
       </c>
     </row>
@@ -7813,6 +7823,16 @@
       </c>
       <c r="AJE2" t="n">
         <v>88.2</v>
+      </c>
+      <c r="AJF2" t="inlineStr">
+        <is>
+          <t>'01</t>
+        </is>
+      </c>
+      <c r="AJG2" t="inlineStr">
+        <is>
+          <t>REGION 01: EDINBURG</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -10384,6 +10404,16 @@
       </c>
       <c r="AJE3" t="n">
         <v>69.40000000000001</v>
+      </c>
+      <c r="AJF3" t="inlineStr">
+        <is>
+          <t>'02</t>
+        </is>
+      </c>
+      <c r="AJG3" t="inlineStr">
+        <is>
+          <t>REGION 02: CORPUS CHRISTI</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -12948,6 +12978,16 @@
       <c r="AJE4" t="n">
         <v>76.90000000000001</v>
       </c>
+      <c r="AJF4" t="inlineStr">
+        <is>
+          <t>'03</t>
+        </is>
+      </c>
+      <c r="AJG4" t="inlineStr">
+        <is>
+          <t>REGION 03: VICTORIA</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -15698,6 +15738,16 @@
       </c>
       <c r="AJE5" t="n">
         <v>73.2</v>
+      </c>
+      <c r="AJF5" t="inlineStr">
+        <is>
+          <t>'04</t>
+        </is>
+      </c>
+      <c r="AJG5" t="inlineStr">
+        <is>
+          <t>REGION 04: HOUSTON</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -18445,6 +18495,16 @@
       </c>
       <c r="AJE6" t="n">
         <v>73.59999999999999</v>
+      </c>
+      <c r="AJF6" t="inlineStr">
+        <is>
+          <t>'05</t>
+        </is>
+      </c>
+      <c r="AJG6" t="inlineStr">
+        <is>
+          <t>REGION 05: BEAUMONT</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -21049,6 +21109,16 @@
       <c r="AJE7" t="n">
         <v>77.8</v>
       </c>
+      <c r="AJF7" t="inlineStr">
+        <is>
+          <t>'06</t>
+        </is>
+      </c>
+      <c r="AJG7" t="inlineStr">
+        <is>
+          <t>REGION 06: HUNTSVILLE</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -23721,6 +23791,16 @@
       </c>
       <c r="AJE8" t="n">
         <v>78.09999999999999</v>
+      </c>
+      <c r="AJF8" t="inlineStr">
+        <is>
+          <t>'07</t>
+        </is>
+      </c>
+      <c r="AJG8" t="inlineStr">
+        <is>
+          <t>REGION 07: KILGORE</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -26270,6 +26350,16 @@
       </c>
       <c r="AJE9" t="n">
         <v>67.09999999999999</v>
+      </c>
+      <c r="AJF9" t="inlineStr">
+        <is>
+          <t>'08</t>
+        </is>
+      </c>
+      <c r="AJG9" t="inlineStr">
+        <is>
+          <t>REGION 08: MT PLEASANT</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -28820,6 +28910,16 @@
       <c r="AJE10" t="n">
         <v>73.8</v>
       </c>
+      <c r="AJF10" t="inlineStr">
+        <is>
+          <t>'09</t>
+        </is>
+      </c>
+      <c r="AJG10" t="inlineStr">
+        <is>
+          <t>REGION 09: WICHITA FALLS</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -31572,6 +31672,16 @@
       </c>
       <c r="AJE11" t="n">
         <v>75</v>
+      </c>
+      <c r="AJF11" t="inlineStr">
+        <is>
+          <t>'10</t>
+        </is>
+      </c>
+      <c r="AJG11" t="inlineStr">
+        <is>
+          <t>REGION 10: RICHARDSON</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -34285,6 +34395,16 @@
       </c>
       <c r="AJE12" t="n">
         <v>70.90000000000001</v>
+      </c>
+      <c r="AJF12" t="inlineStr">
+        <is>
+          <t>'11</t>
+        </is>
+      </c>
+      <c r="AJG12" t="inlineStr">
+        <is>
+          <t>REGION 11: FORT WORTH</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -36949,6 +37069,16 @@
       <c r="AJE13" t="n">
         <v>69.59999999999999</v>
       </c>
+      <c r="AJF13" t="inlineStr">
+        <is>
+          <t>'12</t>
+        </is>
+      </c>
+      <c r="AJG13" t="inlineStr">
+        <is>
+          <t>REGION 12: WACO</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -39695,6 +39825,16 @@
       </c>
       <c r="AJE14" t="n">
         <v>74.8</v>
+      </c>
+      <c r="AJF14" t="inlineStr">
+        <is>
+          <t>'13</t>
+        </is>
+      </c>
+      <c r="AJG14" t="inlineStr">
+        <is>
+          <t>REGION 13: AUSTIN</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -42271,6 +42411,16 @@
       <c r="AJE15" t="n">
         <v>81.3</v>
       </c>
+      <c r="AJF15" t="inlineStr">
+        <is>
+          <t>'14</t>
+        </is>
+      </c>
+      <c r="AJG15" t="inlineStr">
+        <is>
+          <t>REGION 14: ABILENE</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -44836,6 +44986,16 @@
       <c r="AJE16" t="n">
         <v>79</v>
       </c>
+      <c r="AJF16" t="inlineStr">
+        <is>
+          <t>'15</t>
+        </is>
+      </c>
+      <c r="AJG16" t="inlineStr">
+        <is>
+          <t>REGION 15: SAN ANGELO</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -47416,6 +47576,16 @@
       </c>
       <c r="AJE17" t="n">
         <v>67</v>
+      </c>
+      <c r="AJF17" t="inlineStr">
+        <is>
+          <t>'16</t>
+        </is>
+      </c>
+      <c r="AJG17" t="inlineStr">
+        <is>
+          <t>REGION 16: AMARILLO</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -49976,6 +50146,16 @@
       <c r="AJE18" t="n">
         <v>76.40000000000001</v>
       </c>
+      <c r="AJF18" t="inlineStr">
+        <is>
+          <t>'17</t>
+        </is>
+      </c>
+      <c r="AJG18" t="inlineStr">
+        <is>
+          <t>REGION 17: LUBBOCK</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -52573,6 +52753,16 @@
       <c r="AJE19" t="n">
         <v>74.8</v>
       </c>
+      <c r="AJF19" t="inlineStr">
+        <is>
+          <t>'18</t>
+        </is>
+      </c>
+      <c r="AJG19" t="inlineStr">
+        <is>
+          <t>REGION 18: MIDLAND</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -55218,6 +55408,16 @@
       <c r="AJE20" t="n">
         <v>88.5</v>
       </c>
+      <c r="AJF20" t="inlineStr">
+        <is>
+          <t>'19</t>
+        </is>
+      </c>
+      <c r="AJG20" t="inlineStr">
+        <is>
+          <t>REGION 19: EL PASO</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -57927,6 +58127,16 @@
       <c r="AJE21" t="n">
         <v>72</v>
       </c>
+      <c r="AJF21" t="inlineStr">
+        <is>
+          <t>'20</t>
+        </is>
+      </c>
+      <c r="AJG21" t="inlineStr">
+        <is>
+          <t>REGION 20: SAN ANTONIO</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
